--- a/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业商品销售额.xlsx
+++ b/data_year/zb/批发和零售业/连锁零售企业/按业态分连锁零售企业商品销售额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,760 +498,517 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>657.4772</v>
+        <v>17233.2</v>
       </c>
       <c r="C2" t="n">
-        <v>85.5228</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>1072.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>246.6</v>
+      </c>
       <c r="F2" t="n">
-        <v>63.2535</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>207.3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11822.6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2919.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>56.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36.1</v>
+      </c>
       <c r="L2" t="n">
-        <v>484.6828</v>
+        <v>2671.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1318.186</v>
+        <v>2766.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1581.4125</v>
+        <v>22919.27523</v>
       </c>
       <c r="C3" t="n">
-        <v>69.0273</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>1031.00793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>795.6841899999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>225.97943</v>
+      </c>
       <c r="F3" t="n">
-        <v>2.5792</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>203.95445</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15742.60629</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.9229</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2594.54002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>64.66598999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.62511</v>
+      </c>
       <c r="L3" t="n">
-        <v>596.5183</v>
+        <v>3226.81545</v>
       </c>
       <c r="M3" t="n">
-        <v>1925.555</v>
+        <v>3398.22198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2206.6942</v>
+        <v>19628.96408</v>
       </c>
       <c r="C4" t="n">
-        <v>79.6661</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>2260.40216</v>
+      </c>
+      <c r="D4" t="n">
+        <v>216.29786</v>
+      </c>
+      <c r="E4" t="n">
+        <v>263.92311</v>
+      </c>
       <c r="F4" t="n">
-        <v>1.4007</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>2617.52789</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12413.55334</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.80536</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4221.94692</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47.28784</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34.25736</v>
+      </c>
       <c r="L4" t="n">
-        <v>744.7315</v>
+        <v>3251.77818</v>
       </c>
       <c r="M4" t="n">
-        <v>2409.9401</v>
+        <v>2915.88587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7782.0981</v>
+        <v>22492.8017</v>
       </c>
       <c r="C5" t="n">
-        <v>130.8653</v>
+        <v>1582.7</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2794</v>
+        <v>234.6387</v>
       </c>
       <c r="E5" t="n">
-        <v>183.0868</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
+        <v>311.2975</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1962.4175</v>
+      </c>
       <c r="G5" t="n">
-        <v>5336.2177</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>14791.7035</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.1326</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4734.1516</v>
+      </c>
       <c r="J5" t="n">
-        <v>90.8961</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>51.6407</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32.9228</v>
+      </c>
       <c r="L5" t="n">
-        <v>1275.2761</v>
+        <v>3703.9725</v>
       </c>
       <c r="M5" t="n">
-        <v>3113.2772</v>
+        <v>2889.2093</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8867.616400000001</v>
+        <v>23345.7794</v>
       </c>
       <c r="C6" t="n">
-        <v>489.5371</v>
+        <v>1400.3104</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8113</v>
+        <v>240.9243</v>
       </c>
       <c r="E6" t="n">
-        <v>223.0822</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>345.9696</v>
+      </c>
+      <c r="F6" t="n">
+        <v>475.6747</v>
+      </c>
       <c r="G6" t="n">
-        <v>4662.0548</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>16786.3024</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.435</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4647.203</v>
+      </c>
       <c r="J6" t="n">
-        <v>57.4821</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>50.9023</v>
+      </c>
+      <c r="K6" t="n">
+        <v>29.5499</v>
+      </c>
       <c r="L6" t="n">
-        <v>1481.8441</v>
+        <v>3806.1046</v>
       </c>
       <c r="M6" t="n">
-        <v>3443.3463</v>
+        <v>2981.7546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10106.52729</v>
+        <v>20520.9904</v>
       </c>
       <c r="C7" t="n">
-        <v>884.50847</v>
+        <v>1739.7011</v>
       </c>
       <c r="D7" t="n">
-        <v>138.97024</v>
+        <v>250.296</v>
       </c>
       <c r="E7" t="n">
-        <v>231.70341</v>
+        <v>387.2291</v>
       </c>
       <c r="F7" t="n">
-        <v>34.74841</v>
+        <v>483.4914</v>
       </c>
       <c r="G7" t="n">
-        <v>6830.63103</v>
+        <v>13313.9362</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50511</v>
+        <v>17.6904</v>
       </c>
       <c r="I7" t="n">
-        <v>1871.66472</v>
+        <v>4962.9214</v>
       </c>
       <c r="J7" t="n">
-        <v>79.74583</v>
+        <v>46.9197</v>
       </c>
       <c r="K7" t="n">
-        <v>27.26143</v>
+        <v>31.45</v>
       </c>
       <c r="L7" t="n">
-        <v>1625.36831</v>
+        <v>3841.5738</v>
       </c>
       <c r="M7" t="n">
-        <v>1919.47012</v>
+        <v>3118.1382</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12315.32431</v>
+        <v>20573.7123</v>
       </c>
       <c r="C8" t="n">
-        <v>1112.71282</v>
+        <v>1992.1802</v>
       </c>
       <c r="D8" t="n">
-        <v>162.72204</v>
+        <v>259.3414</v>
       </c>
       <c r="E8" t="n">
-        <v>276.04182</v>
+        <v>422.4482</v>
       </c>
       <c r="F8" t="n">
-        <v>40.01796</v>
+        <v>469.8163</v>
       </c>
       <c r="G8" t="n">
-        <v>8473.408799999999</v>
+        <v>12956.9822</v>
       </c>
       <c r="H8" t="n">
-        <v>13.90144</v>
+        <v>59.8471</v>
       </c>
       <c r="I8" t="n">
-        <v>2233.81886</v>
+        <v>5108.0218</v>
       </c>
       <c r="J8" t="n">
-        <v>84.70278999999999</v>
+        <v>44.0656</v>
       </c>
       <c r="K8" t="n">
-        <v>34.75656</v>
+        <v>29.8119</v>
       </c>
       <c r="L8" t="n">
-        <v>1942.98534</v>
+        <v>3896.497</v>
       </c>
       <c r="M8" t="n">
-        <v>2249.54351</v>
+        <v>3067.1519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13373.9413</v>
+        <v>20392.7775</v>
       </c>
       <c r="C9" t="n">
-        <v>697.3114</v>
+        <v>2152.6518</v>
       </c>
       <c r="D9" t="n">
-        <v>142.525</v>
+        <v>230.4643</v>
       </c>
       <c r="E9" t="n">
-        <v>269.8301</v>
+        <v>482.8894</v>
       </c>
       <c r="F9" t="n">
-        <v>143.0284</v>
+        <v>526.1469</v>
       </c>
       <c r="G9" t="n">
-        <v>8996.214099999999</v>
+        <v>12628.2755</v>
       </c>
       <c r="H9" t="n">
-        <v>1.5222</v>
+        <v>57.5807</v>
       </c>
       <c r="I9" t="n">
-        <v>2443.5485</v>
+        <v>4415.0676</v>
       </c>
       <c r="J9" t="n">
-        <v>63.3494</v>
+        <v>46.4594</v>
       </c>
       <c r="K9" t="n">
-        <v>37.1692</v>
+        <v>26.6782</v>
       </c>
       <c r="L9" t="n">
-        <v>2498.2548</v>
+        <v>3778.0337</v>
       </c>
       <c r="M9" t="n">
-        <v>2569.521</v>
+        <v>3520.3131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17233.2</v>
+        <v>21879.2524</v>
       </c>
       <c r="C10" t="n">
-        <v>1072.9</v>
+        <v>2776.2474</v>
       </c>
       <c r="D10" t="n">
-        <v>171.8</v>
+        <v>235.2686</v>
       </c>
       <c r="E10" t="n">
-        <v>246.6</v>
+        <v>542.0155</v>
       </c>
       <c r="F10" t="n">
-        <v>207.3</v>
+        <v>585.2521</v>
       </c>
       <c r="G10" t="n">
-        <v>11822.6</v>
+        <v>14153.8183</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>67.21810000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>2919.1</v>
+        <v>4665.4251</v>
       </c>
       <c r="J10" t="n">
-        <v>56.4</v>
+        <v>35.1436</v>
       </c>
       <c r="K10" t="n">
-        <v>36.1</v>
+        <v>14.4856</v>
       </c>
       <c r="L10" t="n">
-        <v>2671.5</v>
+        <v>3781.4131</v>
       </c>
       <c r="M10" t="n">
-        <v>2766.9</v>
+        <v>3430.9539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22919.27523</v>
+        <v>21117.647</v>
       </c>
       <c r="C11" t="n">
-        <v>1031.00793</v>
+        <v>3207.6088</v>
       </c>
       <c r="D11" t="n">
-        <v>795.6841899999999</v>
+        <v>253.4404</v>
       </c>
       <c r="E11" t="n">
-        <v>225.97943</v>
+        <v>599.3941</v>
       </c>
       <c r="F11" t="n">
-        <v>203.95445</v>
+        <v>323.4725</v>
       </c>
       <c r="G11" t="n">
-        <v>15742.60629</v>
+        <v>14245.16</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9229</v>
+        <v>72.6755</v>
       </c>
       <c r="I11" t="n">
-        <v>2594.54002</v>
+        <v>4729.4631</v>
       </c>
       <c r="J11" t="n">
-        <v>64.66598999999999</v>
+        <v>33.5991</v>
       </c>
       <c r="K11" t="n">
-        <v>47.62511</v>
+        <v>22.1639</v>
       </c>
       <c r="L11" t="n">
-        <v>3226.81545</v>
+        <v>3518.4382</v>
       </c>
       <c r="M11" t="n">
-        <v>3398.22198</v>
+        <v>3379.0243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19628.96408</v>
+        <v>18245.4117</v>
       </c>
       <c r="C12" t="n">
-        <v>2260.40216</v>
+        <v>3313.9178</v>
       </c>
       <c r="D12" t="n">
-        <v>216.29786</v>
+        <v>245.9606</v>
       </c>
       <c r="E12" t="n">
-        <v>263.92311</v>
+        <v>640.2336</v>
       </c>
       <c r="F12" t="n">
-        <v>2617.52789</v>
+        <v>307.9555</v>
       </c>
       <c r="G12" t="n">
-        <v>12413.55334</v>
+        <v>11650.5293</v>
       </c>
       <c r="H12" t="n">
-        <v>3.80536</v>
+        <v>75.22239999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>4221.94692</v>
+        <v>4601.1388</v>
       </c>
       <c r="J12" t="n">
-        <v>47.28784</v>
+        <v>24.5011</v>
       </c>
       <c r="K12" t="n">
-        <v>34.25736</v>
+        <v>19.6</v>
       </c>
       <c r="L12" t="n">
-        <v>3251.77818</v>
+        <v>3082.6792</v>
       </c>
       <c r="M12" t="n">
-        <v>2915.88587</v>
+        <v>3347.3111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22492.8017</v>
+        <v>20889.3807</v>
       </c>
       <c r="C13" t="n">
-        <v>1582.7</v>
+        <v>4498.6418</v>
       </c>
       <c r="D13" t="n">
-        <v>234.6387</v>
+        <v>258.3718</v>
       </c>
       <c r="E13" t="n">
-        <v>311.2975</v>
+        <v>715.7998</v>
       </c>
       <c r="F13" t="n">
-        <v>1962.4175</v>
+        <v>343.6312</v>
       </c>
       <c r="G13" t="n">
-        <v>14791.7035</v>
+        <v>14353.4067</v>
       </c>
       <c r="H13" t="n">
-        <v>11.1326</v>
+        <v>81.06699999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>4734.1516</v>
+        <v>4535.1928</v>
       </c>
       <c r="J13" t="n">
-        <v>51.6407</v>
+        <v>29.2248</v>
       </c>
       <c r="K13" t="n">
-        <v>32.9228</v>
+        <v>25.6358</v>
       </c>
       <c r="L13" t="n">
-        <v>3703.9725</v>
+        <v>3404.3868</v>
       </c>
       <c r="M13" t="n">
-        <v>2889.2093</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>23345.7794</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1400.3104</v>
-      </c>
-      <c r="D14" t="n">
-        <v>240.9243</v>
-      </c>
-      <c r="E14" t="n">
-        <v>345.9696</v>
-      </c>
-      <c r="F14" t="n">
-        <v>475.6747</v>
-      </c>
-      <c r="G14" t="n">
-        <v>16786.3024</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.435</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4647.203</v>
-      </c>
-      <c r="J14" t="n">
-        <v>50.9023</v>
-      </c>
-      <c r="K14" t="n">
-        <v>29.5499</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3806.1046</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2981.7546</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>20520.9904</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1739.7011</v>
-      </c>
-      <c r="D15" t="n">
-        <v>250.296</v>
-      </c>
-      <c r="E15" t="n">
-        <v>387.2291</v>
-      </c>
-      <c r="F15" t="n">
-        <v>483.4914</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13313.9362</v>
-      </c>
-      <c r="H15" t="n">
-        <v>17.6904</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4962.9214</v>
-      </c>
-      <c r="J15" t="n">
-        <v>46.9197</v>
-      </c>
-      <c r="K15" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3841.5738</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3118.1382</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>20573.7123</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1992.1802</v>
-      </c>
-      <c r="D16" t="n">
-        <v>259.3414</v>
-      </c>
-      <c r="E16" t="n">
-        <v>422.4482</v>
-      </c>
-      <c r="F16" t="n">
-        <v>469.8163</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12956.9822</v>
-      </c>
-      <c r="H16" t="n">
-        <v>59.8471</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5108.0218</v>
-      </c>
-      <c r="J16" t="n">
-        <v>44.0656</v>
-      </c>
-      <c r="K16" t="n">
-        <v>29.8119</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3896.497</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3067.1519</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>20392.7775</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2152.6518</v>
-      </c>
-      <c r="D17" t="n">
-        <v>230.4643</v>
-      </c>
-      <c r="E17" t="n">
-        <v>482.8894</v>
-      </c>
-      <c r="F17" t="n">
-        <v>526.1469</v>
-      </c>
-      <c r="G17" t="n">
-        <v>12628.2755</v>
-      </c>
-      <c r="H17" t="n">
-        <v>57.5807</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4415.0676</v>
-      </c>
-      <c r="J17" t="n">
-        <v>46.4594</v>
-      </c>
-      <c r="K17" t="n">
-        <v>26.6782</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3778.0337</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3520.3131</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>21879.2524</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2776.2474</v>
-      </c>
-      <c r="D18" t="n">
-        <v>235.2686</v>
-      </c>
-      <c r="E18" t="n">
-        <v>542.0155</v>
-      </c>
-      <c r="F18" t="n">
-        <v>585.2521</v>
-      </c>
-      <c r="G18" t="n">
-        <v>14153.8183</v>
-      </c>
-      <c r="H18" t="n">
-        <v>67.21810000000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4665.4251</v>
-      </c>
-      <c r="J18" t="n">
-        <v>35.1436</v>
-      </c>
-      <c r="K18" t="n">
-        <v>14.4856</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3781.4131</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3430.9539</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>21117.647</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3207.6088</v>
-      </c>
-      <c r="D19" t="n">
-        <v>253.4404</v>
-      </c>
-      <c r="E19" t="n">
-        <v>599.3941</v>
-      </c>
-      <c r="F19" t="n">
-        <v>323.4725</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14245.16</v>
-      </c>
-      <c r="H19" t="n">
-        <v>72.6755</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4729.4631</v>
-      </c>
-      <c r="J19" t="n">
-        <v>33.5991</v>
-      </c>
-      <c r="K19" t="n">
-        <v>22.1639</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3518.4382</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3379.0243</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>18245.4117</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3313.9178</v>
-      </c>
-      <c r="D20" t="n">
-        <v>245.9606</v>
-      </c>
-      <c r="E20" t="n">
-        <v>640.2336</v>
-      </c>
-      <c r="F20" t="n">
-        <v>307.9555</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11650.5293</v>
-      </c>
-      <c r="H20" t="n">
-        <v>75.22239999999999</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4601.1388</v>
-      </c>
-      <c r="J20" t="n">
-        <v>24.5011</v>
-      </c>
-      <c r="K20" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3082.6792</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3347.3111</v>
+        <v>3618.8869</v>
       </c>
     </row>
   </sheetData>
